--- a/Outputs/PtX_demand_CZ.xlsx
+++ b/Outputs/PtX_demand_CZ.xlsx
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.002636834777673857</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0005210937701778214</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4.679537878854075e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002430991954532751</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.002636834777673857</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>9.701819216868525e-05</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0005210937701778214</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4.679537878854075e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002430991954532751</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>9.701819216868525e-05</v>
+        <v>0.001711240593102564</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.001711240593102564</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.001874926180354666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001697816373739507</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6.068563423464417e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.001874926180354666</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001697816373739507</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>6.068563423464417e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.009704199855958301</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001947674719947</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.561523252864238e-07</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.009590381865822301</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000313728971853</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.596162336022546e-06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,30 +664,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.009704199855958301</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001947674719947</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.561523252864238e-07</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.009590381865822301</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.000313728971853</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.596162336022546e-06</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.00639754447043152</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -684,7 +686,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.00639754447043152</v>
+        <v>0.0006561175519646474</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -696,74 +698,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.002636834777673857</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001808258785271249</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0006561175519646474</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.008928588202750833</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01039507526351007</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0001947674719947</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.566202790743092e-07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00989416669551022</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000313728971853</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.596162336022546e-06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.009979350073333344</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0024972646234169</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.917290063196409e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0003806931026713</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.009979350073333344</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>9.843920302169559e-05</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0024972646234169</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>3.917290063196409e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0003806931026713</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -771,7 +791,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>9.843920302169559e-05</v>
+        <v>0.001736304876414324</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -784,28 +804,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.001736304876414324</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9.252752796519075e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.296002164840976e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -813,14 +835,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.007474128760514786</v>
+      </c>
       <c r="F16" t="n">
-        <v>9.252752796519075e-10</v>
+        <v>0.0002061326160381924</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.296002164840976e-10</v>
+        <v>8.946786981804565e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -828,7 +852,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -836,24 +860,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.007474128760514786</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002061326160381924</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>8.946786981804565e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -862,17 +880,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0043795341426325</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003175031110819</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.634997826699168e-07</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0065219019431024</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003811297831029</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.096097011510452e-06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -880,30 +910,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0043795341426325</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0003175031110819</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8.634997826699168e-07</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0065219019431024</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0003811297831029</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.096097011510452e-06</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.006453919863473069</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -912,7 +932,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.006453919863473069</v>
+        <v>0.002608811033368257</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -924,74 +944,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.009979350073333344</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001834744079436019</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.002608811033368257</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.01653685965735611</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.007082932307362871</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003175031110819</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.026726833018809e-07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.006992063045191963</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003811297831029</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.096097011510452e-06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.02331652046354969</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0034670938306759</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>6.639491125692976e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0006131830468041</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.02331652046354969</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.0001000722509256611</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0034670938306759</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>6.639491125692976e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0006131830468041</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -999,7 +1037,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.0001000722509256611</v>
+        <v>0.001765109142926401</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1012,28 +1050,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.001765109142926401</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>9.588086302009341e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.224866691896118e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1041,14 +1081,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.01861181823029339</v>
+      </c>
       <c r="F26" t="n">
-        <v>9.588086302009341e-09</v>
+        <v>3.655514244239956e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.224866691896118e-09</v>
+        <v>2.461079464705437e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1056,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1064,24 +1106,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.01861181823029339</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3.655514244239956e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>4.05766819302163e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.169192348961319e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.801644812245675e-14</v>
+      </c>
       <c r="I27" t="n">
-        <v>2.461079464705437e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.016926863433363e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.61029145545919e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.531084594319585e-13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1091,28 +1139,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>4.05766819302163e-11</v>
+        <v>0.0005809265804677798</v>
       </c>
       <c r="G28" t="n">
-        <v>1.169192348961319e-11</v>
+        <v>0.0005673223150293001</v>
       </c>
       <c r="H28" t="n">
-        <v>1.801644812245675e-14</v>
+        <v>1.364292762031299e-06</v>
       </c>
       <c r="I28" t="n">
-        <v>1.016926863433363e-10</v>
+        <v>0.0016966448313037</v>
       </c>
       <c r="J28" t="n">
-        <v>2.61029145545919e-12</v>
+        <v>0.0004901932549159</v>
       </c>
       <c r="K28" t="n">
-        <v>3.531084594319585e-13</v>
+        <v>2.846703482423101e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1120,30 +1168,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0005809265804677798</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0005673223150293001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.364292762031299e-06</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0016966448313037</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0004901932549159</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.846703482423101e-06</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.006518820299633993</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,7 +1190,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.006518820299633993</v>
+        <v>0.006476976186687356</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1164,23 +1202,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.02331652046354969</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.001865181393852062</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.006476976186687356</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.03160761471661475</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.004084585182249063</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0005673223267212235</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.430687691304677e-06</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.002334442999314232</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0004901932575261914</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.846703835531561e-06</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_CZ.xlsx
+++ b/Outputs/PtX_demand_CZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0020067734328618</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0002074940424132762</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,29 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.009704199855958301</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0001947674719947</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.561523252864238e-07</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.009590381865822301</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.000313728971853</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.596162336022546e-06</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -664,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.00639754447043152</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.009704199855958301</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001947674719947</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001277186641834586</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.009590381865822301</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000313728971853</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.596162336022546e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -685,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0006561175519646474</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.09488339522763531</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001371690190649</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01167223281399252</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0619264257483374</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0018990021266557</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.141145544782768e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.002636834777673857</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001808258785271249</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.008928588202750833</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01039507526351007</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001947674719947</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.566202790743092e-07</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.00989416669551022</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.000313728971853</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.596162336022546e-06</v>
-      </c>
+        <v>0.00639754447043152</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009979350073333344</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0024972646234169</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0006561175519646474</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>3.917290063196409e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0003806931026713</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002636834777673857</v>
+      </c>
       <c r="D13" t="n">
-        <v>9.843920302169559e-05</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.001808258785271249</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.008928588202750833</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1072852439240072</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0015664576626437</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0129494199237809</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0720280864862609</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0022127310985087</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.300761778385023e-05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.001736304876414324</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.009979350073333344</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0024972646234169</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3.917290063196409e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0003806931026713</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>9.843920302169559e-05</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>9.252752796519075e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.296002164840976e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.007474128760514786</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002061326160381924</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.001736304876414324</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>8.946786981804565e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -861,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>9.252752796519075e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.296002164840976e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -879,30 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.007474128760514786</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0043795341426325</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0003175031110819</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8.634997826699168e-07</v>
-      </c>
+        <v>0.0002061326160381924</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0065219019431024</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0003811297831029</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.096097011510452e-06</v>
-      </c>
+        <v>8.946786981804565e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -910,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.006453919863473069</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0010960988503425</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0002238464381885972</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -931,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.002608811033368257</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -944,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.009979350073333344</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001834744079436019</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01653685965735611</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.007082932307362871</v>
+        <v>0.0043795341426325</v>
       </c>
       <c r="G21" t="n">
         <v>0.0003175031110819</v>
       </c>
       <c r="H21" t="n">
-        <v>9.026726833018809e-07</v>
+        <v>0.00155497867884227</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006992063045191963</v>
+        <v>0.0065219019431024</v>
       </c>
       <c r="J21" t="n">
         <v>0.0003811297831029</v>
@@ -981,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02331652046354969</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0034670938306759</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0270882932946468</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001474643217016</v>
+      </c>
       <c r="H22" t="n">
-        <v>6.639491125692976e-08</v>
+        <v>0.01100481732831053</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006131830468041</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.02854306645396</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0016851944930805</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.006854884539204e-05</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.0001000722509256611</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.006453919863473069</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1029,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.001765109142926401</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.002608811033368257</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1050,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.009979350073333344</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.001834744079436019</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01653685965735611</v>
+      </c>
       <c r="F25" t="n">
-        <v>9.588086302009341e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.03526732445235217</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0017921463280979</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01255983518005343</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.224866691896118e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.03575897593734056</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0020663242761834</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.216464585690249e-05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.02331652046354969</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.01861181823029339</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.655514244239956e-05</v>
+        <v>0.0034670938306759</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>6.639491125692976e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>2.461079464705437e-05</v>
+        <v>0.0006131830468041</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1098,69 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.0001000722509256611</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>4.05766819302163e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.169192348961319e-11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.801644812245675e-14</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.016926863433363e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.61029145545919e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.531084594319585e-13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.001765109142926401</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0005809265804677798</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0005673223150293001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.364292762031299e-06</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0016966448313037</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0004901932549159</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.846703482423101e-06</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1168,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.006518820299633993</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>9.588086302009341e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.224866691896118e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1190,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.006476976186687356</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.01861181823029339</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.655514244239956e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.461079464705437e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>7.344238361320249e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>7.789809888854212e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>4.05766819302163e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.169192348961319e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.989385138145736e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.016926863433363e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.61029145545919e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.531084594319585e-13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0005809265804677798</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0005673223150293001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002036920338936632</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0016966448313037</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0004901932549159</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.846703482423101e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0025018970452341</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0013300657300867</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.009979138206718429</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0049884678431902</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0014505326724771</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.263855420265018e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.006518820299633993</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.006476976186687356</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.02331652046354969</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.001865181393852062</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.03160761471661475</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.004084585182249063</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0005673223267212235</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.430687691304677e-06</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.002334442999314232</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0004901932575261914</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.846703835531561e-06</v>
+      <c r="F37" t="n">
+        <v>0.006659924611096365</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001897388056807923</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01201612500046017</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.007400808941392975</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001940725930003292</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.111055925579658e-05</v>
       </c>
     </row>
   </sheetData>
